--- a/test-output/Output.xlsx
+++ b/test-output/Output.xlsx
@@ -1,15 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AD493FD2-C7EB-4C7C-BB1D-3E1F0AC42FEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="6630" tabRatio="619" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Indent_List" sheetId="1" r:id="rId1"/>
+    <sheet name="PO_List" sheetId="19" r:id="rId2"/>
+    <sheet name="Issue_List" sheetId="2" r:id="rId3"/>
+    <sheet name="ServiceInd_List" sheetId="3" r:id="rId4"/>
+    <sheet name="GRN_List" sheetId="4" r:id="rId5"/>
+    <sheet name="GatePass_List" sheetId="5" r:id="rId6"/>
+    <sheet name="SupDebitNote_List" sheetId="15" r:id="rId7"/>
+    <sheet name="Billing_WO_List" sheetId="16" r:id="rId8"/>
+    <sheet name="MiscExpense_List" sheetId="17" r:id="rId9"/>
+    <sheet name="SupDebitNoteReceipt_List" sheetId="18" r:id="rId10"/>
+    <sheet name="Ropo_List" sheetId="6" r:id="rId11"/>
+    <sheet name="PendingIndent_ListTest" sheetId="7" r:id="rId12"/>
+    <sheet name="TransferOrder_List" sheetId="9" r:id="rId13"/>
+    <sheet name="MaterialReco_List" sheetId="10" r:id="rId14"/>
+    <sheet name="UnpaidGRN_List" sheetId="12" r:id="rId15"/>
+    <sheet name="Return_List" sheetId="11" r:id="rId16"/>
+    <sheet name="MaterialSales_List" sheetId="13" r:id="rId17"/>
+    <sheet name="SuppCert_ListTest" sheetId="8" r:id="rId18"/>
+    <sheet name="SuppAdvance_List" sheetId="14" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:T20"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,21 +39,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>No Records Found</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>ropoproject</t>
+  </si>
+  <si>
+    <t>ropomaterial</t>
+  </si>
+  <si>
+    <t>unfullfilledPOTo</t>
+  </si>
+  <si>
+    <t>UnfulfilledIssue</t>
+  </si>
+  <si>
+    <t>unfullfilledPOToAsset</t>
+  </si>
+  <si>
+    <t>UnfulfilledIssueAsset</t>
+  </si>
+  <si>
+    <t>materialwithfromstore</t>
+  </si>
+  <si>
+    <t>assetwithfromstore</t>
+  </si>
+  <si>
+    <t>projectwithstatus</t>
+  </si>
+  <si>
+    <t>matwithstatus</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>matstatus</t>
+  </si>
+  <si>
+    <t>fulfilled</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>materialwithstatus</t>
+  </si>
+  <si>
+    <t>assetwithstatus</t>
+  </si>
+  <si>
+    <t>returnable</t>
+  </si>
+  <si>
+    <t>nonreturnable</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>companywithstore</t>
+  </si>
   <si>
     <t>UnfullfilledPOTO</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>Unfullfilledissue</t>
   </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>SubProject</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>WorkCategory</t>
+  </si>
+  <si>
+    <t>TypeOfIndent</t>
+  </si>
+  <si>
+    <t>Debitable</t>
+  </si>
+  <si>
+    <t>MaterialType</t>
+  </si>
+  <si>
+    <t>FulfilledPOTO</t>
+  </si>
+  <si>
+    <t>FulfilledIssue</t>
+  </si>
+  <si>
+    <t>fullFilled</t>
+  </si>
+  <si>
+    <t>ROPO</t>
+  </si>
+  <si>
+    <t>All_Radio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -345,28 +476,728 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4404E57D-1B46-4284-BEA3-1DE15A50BDDC}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CE3D31-EFF9-453C-9ECC-A816D05C3D42}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708285D6-DB87-40AF-8174-867216D89703}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569AEC28-5700-47B4-8AF2-1F0B654C5D5C}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7729DAEB-079E-4EAA-A92C-782C7CBC6A82}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FFBBA2-4990-4A01-AC01-FF952DD139F4}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04146E9E-EA80-4B9E-A448-A61BB682E7D5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DE5042-5B3B-4EC0-BDC8-D7724292A268}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D5BD14-A783-4408-A3E4-10163CED32B2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10023582-830F-4B52-A29A-76BE970BBCAB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B2C498-630A-4592-8EA4-E4AF4847D212}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA57CE2-AA94-4FB2-9953-EE05C4E84874}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168FA4DA-19E6-4AC8-BA11-478D88EC9280}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86978B58-2B8C-4574-BE1F-3B18007D690E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293A23D7-CE5D-4B2E-81F3-CA84109C9531}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14851B64-87F1-4416-88E7-1819A0CCEDF7}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A029CCE-59D2-4753-B0A9-2DDE48482850}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A1152C-3C40-4901-B969-FC08E2AD62B5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test-output/Output.xlsx
+++ b/test-output/Output.xlsx
@@ -1,32 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AD493FD2-C7EB-4C7C-BB1D-3E1F0AC42FEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E476A48D-0FAE-43CA-9D96-C1BD4C3BA388}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="6630" tabRatio="619" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="6630" tabRatio="872" firstSheet="92" activeTab="96" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indent_List" sheetId="1" r:id="rId1"/>
-    <sheet name="PO_List" sheetId="19" r:id="rId2"/>
-    <sheet name="Issue_List" sheetId="2" r:id="rId3"/>
-    <sheet name="ServiceInd_List" sheetId="3" r:id="rId4"/>
-    <sheet name="GRN_List" sheetId="4" r:id="rId5"/>
-    <sheet name="GatePass_List" sheetId="5" r:id="rId6"/>
-    <sheet name="SupDebitNote_List" sheetId="15" r:id="rId7"/>
-    <sheet name="Billing_WO_List" sheetId="16" r:id="rId8"/>
-    <sheet name="MiscExpense_List" sheetId="17" r:id="rId9"/>
-    <sheet name="SupDebitNoteReceipt_List" sheetId="18" r:id="rId10"/>
-    <sheet name="Ropo_List" sheetId="6" r:id="rId11"/>
-    <sheet name="PendingIndent_ListTest" sheetId="7" r:id="rId12"/>
-    <sheet name="TransferOrder_List" sheetId="9" r:id="rId13"/>
-    <sheet name="MaterialReco_List" sheetId="10" r:id="rId14"/>
-    <sheet name="UnpaidGRN_List" sheetId="12" r:id="rId15"/>
-    <sheet name="Return_List" sheetId="11" r:id="rId16"/>
-    <sheet name="MaterialSales_List" sheetId="13" r:id="rId17"/>
-    <sheet name="SuppCert_ListTest" sheetId="8" r:id="rId18"/>
-    <sheet name="SuppAdvance_List" sheetId="14" r:id="rId19"/>
+    <sheet name="Advance_List" sheetId="20" r:id="rId2"/>
+    <sheet name="DebitNote_List" sheetId="21" r:id="rId3"/>
+    <sheet name="DebitNoteReceipt_List" sheetId="22" r:id="rId4"/>
+    <sheet name="PO_List" sheetId="19" r:id="rId5"/>
+    <sheet name="Issue_List" sheetId="2" r:id="rId6"/>
+    <sheet name="ServiceInd_List" sheetId="3" r:id="rId7"/>
+    <sheet name="GRN_List" sheetId="4" r:id="rId8"/>
+    <sheet name="GatePass_List" sheetId="5" r:id="rId9"/>
+    <sheet name="SupDebitNote_List" sheetId="15" r:id="rId10"/>
+    <sheet name="Billing_WO_List" sheetId="16" r:id="rId11"/>
+    <sheet name="MiscExpense_List" sheetId="17" r:id="rId12"/>
+    <sheet name="SupDebitNoteReceipt_List" sheetId="18" r:id="rId13"/>
+    <sheet name="Ropo_List" sheetId="6" r:id="rId14"/>
+    <sheet name="PendingIndent_ListTest" sheetId="7" r:id="rId15"/>
+    <sheet name="TransferOrder_List" sheetId="9" r:id="rId16"/>
+    <sheet name="MaterialReco_List" sheetId="10" r:id="rId17"/>
+    <sheet name="UnpaidGRN_List" sheetId="12" r:id="rId18"/>
+    <sheet name="Return_List" sheetId="11" r:id="rId19"/>
+    <sheet name="TenderDoc_List" sheetId="25" r:id="rId20"/>
+    <sheet name="ContResponse_List" sheetId="26" r:id="rId21"/>
+    <sheet name="ExpOfInterest_List" sheetId="27" r:id="rId22"/>
+    <sheet name="FloatTendering_List" sheetId="28" r:id="rId23"/>
+    <sheet name="TenderingForm_List" sheetId="29" r:id="rId24"/>
+    <sheet name="TenderReceipt_List" sheetId="30" r:id="rId25"/>
+    <sheet name="TenderRateComparison_List" sheetId="31" r:id="rId26"/>
+    <sheet name="TenderLinkToWO_List" sheetId="32" r:id="rId27"/>
+    <sheet name="PreTenderEst_List" sheetId="33" r:id="rId28"/>
+    <sheet name="Abstract_List" sheetId="34" r:id="rId29"/>
+    <sheet name="Modification_List" sheetId="35" r:id="rId30"/>
+    <sheet name="Quotation_List" sheetId="36" r:id="rId31"/>
+    <sheet name="StoreMaster_List" sheetId="38" r:id="rId32"/>
+    <sheet name="Contractor_List" sheetId="39" r:id="rId33"/>
+    <sheet name="Consultant_List" sheetId="40" r:id="rId34"/>
+    <sheet name="Contractingclient_List" sheetId="41" r:id="rId35"/>
+    <sheet name="CheckList_List" sheetId="42" r:id="rId36"/>
+    <sheet name="SupplierMaster_List" sheetId="43" r:id="rId37"/>
+    <sheet name="ServiceProviderMasters_List" sheetId="45" r:id="rId38"/>
+    <sheet name="RateMaster_List" sheetId="46" r:id="rId39"/>
+    <sheet name="MaterialMaster_List" sheetId="44" r:id="rId40"/>
+    <sheet name="RateComparision_List" sheetId="37" r:id="rId41"/>
+    <sheet name="MaterialSales_List" sheetId="13" r:id="rId42"/>
+    <sheet name="SuppCert_ListTest" sheetId="8" r:id="rId43"/>
+    <sheet name="SuppAdvance_List" sheetId="14" r:id="rId44"/>
+    <sheet name="ServDebitNote_List" sheetId="23" r:id="rId45"/>
+    <sheet name="ServDebitNoteReceipt_List" sheetId="24" r:id="rId46"/>
+    <sheet name="EstChargeType_List" sheetId="47" r:id="rId47"/>
+    <sheet name="MaterialBuyer_List" sheetId="48" r:id="rId48"/>
+    <sheet name="MaterialRoleMapping_List" sheetId="49" r:id="rId49"/>
+    <sheet name="AssetType_List" sheetId="50" r:id="rId50"/>
+    <sheet name="AssetSubType_List" sheetId="51" r:id="rId51"/>
+    <sheet name="Asset_List" sheetId="52" r:id="rId52"/>
+    <sheet name="DocTemp_List" sheetId="53" r:id="rId53"/>
+    <sheet name="MaterialSaleReceipt_List" sheetId="54" r:id="rId54"/>
+    <sheet name="RFQ_List" sheetId="55" r:id="rId55"/>
+    <sheet name="Pur_Search_List" sheetId="56" r:id="rId56"/>
+    <sheet name="Sales_Agent_List" sheetId="57" r:id="rId57"/>
+    <sheet name="Receipts_List" sheetId="58" r:id="rId58"/>
+    <sheet name="temporaryReceipt_List" sheetId="59" r:id="rId59"/>
+    <sheet name="administrativeReceipts_List" sheetId="60" r:id="rId60"/>
+    <sheet name="sales_Payment_List" sheetId="61" r:id="rId61"/>
+    <sheet name="advance_Payments_List" sheetId="62" r:id="rId62"/>
+    <sheet name="customer_Debit_Note_List" sheetId="63" r:id="rId63"/>
+    <sheet name="waive_Off_List" sheetId="64" r:id="rId64"/>
+    <sheet name="agent_Debit_Note_List" sheetId="65" r:id="rId65"/>
+    <sheet name="customer_Credit_Note_List" sheetId="66" r:id="rId66"/>
+    <sheet name="Direct_Waive_Off_List" sheetId="67" r:id="rId67"/>
+    <sheet name="Budget_List" sheetId="68" r:id="rId68"/>
+    <sheet name="Request_List" sheetId="69" r:id="rId69"/>
+    <sheet name="Marketing_Agent_Debit_Note_List" sheetId="70" r:id="rId70"/>
+    <sheet name="booking_Documents_List" sheetId="71" r:id="rId71"/>
+    <sheet name="Send_Email_SMS_List" sheetId="72" r:id="rId72"/>
+    <sheet name="TDS_Reconciliation_List" sheetId="73" r:id="rId73"/>
+    <sheet name="Promotion_Agent_List" sheetId="74" r:id="rId74"/>
+    <sheet name="Unit_Share_Type_List_Test" sheetId="75" r:id="rId75"/>
+    <sheet name="Leads_List" sheetId="76" r:id="rId76"/>
+    <sheet name="Customers_List" sheetId="77" r:id="rId77"/>
+    <sheet name="EnggMilestone_List" sheetId="78" r:id="rId78"/>
+    <sheet name="Mbook_List" sheetId="79" r:id="rId79"/>
+    <sheet name="MBookAbst_List" sheetId="80" r:id="rId80"/>
+    <sheet name="Labour_List" sheetId="81" r:id="rId81"/>
+    <sheet name="Contracting_Leads_List" sheetId="82" r:id="rId82"/>
+    <sheet name="Contracting_Client_List" sheetId="83" r:id="rId83"/>
+    <sheet name="Contracting_Jobs_List" sheetId="84" r:id="rId84"/>
+    <sheet name="Contracting_Contacts_List" sheetId="85" r:id="rId85"/>
+    <sheet name="DPREquip_List" sheetId="86" r:id="rId86"/>
+    <sheet name="Criticalpoint_List" sheetId="87" r:id="rId87"/>
+    <sheet name="Workexecution_List" sheetId="88" r:id="rId88"/>
+    <sheet name="CubeResult_List" sheetId="89" r:id="rId89"/>
+    <sheet name="BankCredit_List" sheetId="90" r:id="rId90"/>
+    <sheet name="BondRequest_List" sheetId="91" r:id="rId91"/>
+    <sheet name="BondPayment_List" sheetId="92" r:id="rId92"/>
+    <sheet name="BillingReceipt_List" sheetId="93" r:id="rId93"/>
+    <sheet name="BillingCreditNote_List" sheetId="94" r:id="rId94"/>
+    <sheet name="LabourCountMapping_List" sheetId="95" r:id="rId95"/>
+    <sheet name="Billing_LabourAdvance_List" sheetId="96" r:id="rId96"/>
+    <sheet name="Billing_LabourPayment_List" sheetId="97" r:id="rId97"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:T20"/>
@@ -39,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="82">
   <si>
     <t>PASS</t>
   </si>
@@ -116,9 +194,6 @@
     <t>companywithstore</t>
   </si>
   <si>
-    <t>UnfullfilledPOTO</t>
-  </si>
-  <si>
     <t>Unfullfilledissue</t>
   </si>
   <si>
@@ -159,6 +234,135 @@
   </si>
   <si>
     <t>All_Radio</t>
+  </si>
+  <si>
+    <t>projectandsubproject</t>
+  </si>
+  <si>
+    <t>companywithproject</t>
+  </si>
+  <si>
+    <t>companyproject</t>
+  </si>
+  <si>
+    <t>mandatorywithstatus</t>
+  </si>
+  <si>
+    <t>withoutrfq</t>
+  </si>
+  <si>
+    <t>projectwithrfq</t>
+  </si>
+  <si>
+    <t>projectwithoutrfq</t>
+  </si>
+  <si>
+    <t>projectall</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>cerCompany</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>mandatoryfilters</t>
+  </si>
+  <si>
+    <t>materialtype</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>contarctor</t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t>ThirdPartyBuyer</t>
+  </si>
+  <si>
+    <t>noFilter</t>
+  </si>
+  <si>
+    <t>getProjectCount</t>
+  </si>
+  <si>
+    <t>getSubProjectCount</t>
+  </si>
+  <si>
+    <t>getStatusCount</t>
+  </si>
+  <si>
+    <t>promotion</t>
+  </si>
+  <si>
+    <t>emailCount</t>
+  </si>
+  <si>
+    <t>smsCount</t>
+  </si>
+  <si>
+    <t>projectCertificate</t>
+  </si>
+  <si>
+    <t>leadsCount</t>
+  </si>
+  <si>
+    <t>CustomersCount</t>
+  </si>
+  <si>
+    <t>statusfilter</t>
+  </si>
+  <si>
+    <t>allledas</t>
+  </si>
+  <si>
+    <t>activeleads</t>
+  </si>
+  <si>
+    <t>inactiveleads</t>
+  </si>
+  <si>
+    <t>allclients</t>
+  </si>
+  <si>
+    <t>activeclients</t>
+  </si>
+  <si>
+    <t>inactiveclients</t>
+  </si>
+  <si>
+    <t>nofilter</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>projectwithdate</t>
+  </si>
+  <si>
+    <t>projectfilter</t>
+  </si>
+  <si>
+    <t>subprojectfilter</t>
+  </si>
+  <si>
+    <t>nofilters</t>
   </si>
 </sst>
 </file>
@@ -480,22 +684,22 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -503,7 +707,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -511,7 +715,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -519,7 +723,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -527,7 +731,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -535,7 +739,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -543,7 +747,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -551,7 +755,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -559,7 +763,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -567,7 +771,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -575,7 +779,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -587,11 +791,104 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14851B64-87F1-4416-88E7-1819A0CCEDF7}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A029CCE-59D2-4753-B0A9-2DDE48482850}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A1152C-3C40-4901-B969-FC08E2AD62B5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4404E57D-1B46-4284-BEA3-1DE15A50BDDC}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,12 +909,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CE3D31-EFF9-453C-9ECC-A816D05C3D42}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,12 +943,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708285D6-DB87-40AF-8174-867216D89703}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +1001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569AEC28-5700-47B4-8AF2-1F0B654C5D5C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -751,7 +1048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7729DAEB-079E-4EAA-A92C-782C7CBC6A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -785,7 +1082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FFBBA2-4990-4A01-AC01-FF952DD139F4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -819,12 +1116,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04146E9E-EA80-4B9E-A448-A61BB682E7D5}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,119 +1155,101 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DE5042-5B3B-4EC0-BDC8-D7724292A268}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46870E2-1EB2-4446-B5AD-865994534498}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CE4A32-9585-43C1-A58A-D425DE7E41D1}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E9EF3A-7856-47FA-B0E5-AF18C7CA37CF}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D5BD14-A783-4408-A3E4-10163CED32B2}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10023582-830F-4B52-A29A-76BE970BBCAB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B2C498-630A-4592-8EA4-E4AF4847D212}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA57CE2-AA94-4FB2-9953-EE05C4E84874}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E6DC96-DDEB-430A-A551-558BC1837ACF}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,6 +1259,1083 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599CFA6A-F8DB-4067-B086-7F464BAF708E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399D93AF-BC5A-42B0-AA2A-63A853402C64}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E787997-B04F-4685-A39A-494033360425}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96304F7B-651F-434E-84F4-69DC46C70225}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED52212-2E5D-4E51-AEC7-E2FB626C5CD0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D25E97-93CA-4FA4-9147-DB0084A8D230}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40571BD7-7AED-4CAC-812A-4741D17A14CF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EC1CE7-D0BA-4DCA-B29B-017E2C52CA78}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2F817F-8EC8-409D-8F8A-9302142EEDB3}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB4E2FA-AD2E-4363-9BB5-4C772AF331BB}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21009B98-725D-4A25-8D33-8EFD69B76A6F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB8FA76-0627-49BD-BDB7-FEB8D2F31A43}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5460D2A6-C632-4FE5-A6B2-DB1AAE1FA5A6}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14405B2-C183-429A-A62F-25A59F2A2D4B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B019DC-17C2-4466-A900-F91F704CD3D0}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2A4D2F-52F1-4A2E-8898-3E6DA0C74C75}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB847CB4-819F-4A05-B192-8322AB361836}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2205F7CE-D7EE-4F73-821F-20E8E879768F}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B4F11D-75F3-4E2C-85AD-05237C2AEAF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D753C32-364E-4012-BB23-828C2966EAC4}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9D2D37-D4EB-458E-AF08-148FEB6F824A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DE5042-5B3B-4EC0-BDC8-D7724292A268}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D5BD14-A783-4408-A3E4-10163CED32B2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10023582-830F-4B52-A29A-76BE970BBCAB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D8EADE-E4A8-40B1-81C2-345140C07A99}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6865980-D554-4119-B109-63330F8B71CF}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259F2251-FE04-437A-9C2D-C7FB70209390}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E36499-1DCD-493C-913F-F8DB2CDE2C3A}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4A4905-6ED1-45AB-BE92-DF351DFAB822}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B2C498-630A-4592-8EA4-E4AF4847D212}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76239C0-83F9-4F98-A5A2-000CEC0EC247}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F05813-D5F6-47E1-A631-472B58EF98F7}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539EDF81-C243-419D-8C0A-34CBC63BC6E1}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9BB6BC-4364-4C02-B0F1-E5CB38E5340B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606A76A7-4257-4866-8490-1F86C1B1A72F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E555706-52E7-4BD1-ADDB-E9F7EF4E5593}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CA28BB-75E5-4E0A-9502-DC9301367605}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68971F62-700A-4D81-94AA-32DF76CB16AA}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C0BA2B-EDD9-425F-9971-EF84AE71CB1A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC1FA03-0639-40DE-9DCA-65FFD6815EE4}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA57CE2-AA94-4FB2-9953-EE05C4E84874}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -1007,7 +2363,278 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1178B4B-6E0D-4C02-A073-CADB6281BFF1}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F2B3F6-B8F7-405E-9D1A-F648639B2798}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5677E1D8-B214-4ACD-941F-A7A1474F15BC}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BED4CD1-9B33-4035-9E21-55D8BBEF4E70}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10384AA-7AEC-4AB8-8887-80B72493BAB9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C12A3-F026-4627-82FC-3B861DF9D75F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371232D3-B63A-4A71-A8E8-E6C727097960}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CBB871-C768-48D6-BE62-464B565088B0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D951D1F0-BB21-4434-A052-D46B35E0AE22}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44634DB0-EE1A-4DC6-BE14-DF22EC52C819}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168FA4DA-19E6-4AC8-BA11-478D88EC9280}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1030,7 +2657,257 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C64CEE-E1B5-4562-A04E-5D7A92563978}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F22D1C9-8D0F-4BBB-BA1D-67569ABFFC61}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="38.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDEA37C-9C8F-42AA-A471-F75F3297495B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE9E195-CD8E-4AE8-9140-63F95485B654}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D1EC0E-AA80-4AC9-BDB4-D742832C00A8}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE63AC45-0485-4CC3-9646-67A86F46381C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5C8AF6-4CEB-41CD-B69B-9549EC3E711D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A341355-76BC-4AD2-A7DC-CE5D8B5D3CDA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E849E5EE-6526-4F8F-8C26-DE53887A1953}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D70ABE-8CDC-4E69-BBE9-6291383CB9AD}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86978B58-2B8C-4574-BE1F-3B18007D690E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1080,7 +2957,366 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F848CC43-5920-4991-BE5A-983005A6198A}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2901DC57-2C56-420D-B7CD-5321963CEC33}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D61DF4-1831-4C86-87C8-855A849E7B75}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E31BD54-8512-4DC7-AFF5-651ECB464336}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C69E319-E639-40A9-924A-E8A87176E9E4}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D29305-0A8E-4E09-85F2-F6048DE62EDA}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B0AE68-1CD3-48E7-9A4B-AA182D659A1C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655EB87-55B9-4BB9-AB57-75D2B2879C0C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DDB2B6-A8DD-4DA9-AC5D-C0AF4AA7328B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D692574-BF8C-4E6B-B497-14ADD9F9B402}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293A23D7-CE5D-4B2E-81F3-CA84109C9531}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1111,12 +3347,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14851B64-87F1-4416-88E7-1819A0CCEDF7}">
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA07A65C-89E4-4346-8588-F1D6B0F00819}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,77 +3362,172 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A029CCE-59D2-4753-B0A9-2DDE48482850}">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C0F5BC-87BF-4666-B8FF-EEFCBCD1AAEC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324B6A5A-D6D5-4B52-BDB2-3E43B6D2B3B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D23995-EA1C-401C-B0FB-E3B70F1912A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20C22ED-8BB5-407C-B0E0-DB2A9C96B61C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E187C5E4-85CA-4FF8-8A3F-2D166ED02345}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A1152C-3C40-4901-B969-FC08E2AD62B5}">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AFC7C8-43CA-4665-9B2A-23E9E1177834}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2A10AC-1101-458E-B46C-23088A40FF62}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/Output.xlsx
+++ b/test-output/Output.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E476A48D-0FAE-43CA-9D96-C1BD4C3BA388}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3441BFA3-32C3-4335-A8F7-76B9A9EC8B5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="6630" tabRatio="872" firstSheet="92" activeTab="96" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="6630" tabRatio="872" firstSheet="111" activeTab="114" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indent_List" sheetId="1" r:id="rId1"/>
@@ -50,66 +50,84 @@
     <sheet name="MaterialMaster_List" sheetId="44" r:id="rId40"/>
     <sheet name="RateComparision_List" sheetId="37" r:id="rId41"/>
     <sheet name="MaterialSales_List" sheetId="13" r:id="rId42"/>
-    <sheet name="SuppCert_ListTest" sheetId="8" r:id="rId43"/>
+    <sheet name="SuppCert_List" sheetId="8" r:id="rId43"/>
     <sheet name="SuppAdvance_List" sheetId="14" r:id="rId44"/>
     <sheet name="ServDebitNote_List" sheetId="23" r:id="rId45"/>
     <sheet name="ServDebitNoteReceipt_List" sheetId="24" r:id="rId46"/>
-    <sheet name="EstChargeType_List" sheetId="47" r:id="rId47"/>
-    <sheet name="MaterialBuyer_List" sheetId="48" r:id="rId48"/>
-    <sheet name="MaterialRoleMapping_List" sheetId="49" r:id="rId49"/>
-    <sheet name="AssetType_List" sheetId="50" r:id="rId50"/>
-    <sheet name="AssetSubType_List" sheetId="51" r:id="rId51"/>
-    <sheet name="Asset_List" sheetId="52" r:id="rId52"/>
-    <sheet name="DocTemp_List" sheetId="53" r:id="rId53"/>
-    <sheet name="MaterialSaleReceipt_List" sheetId="54" r:id="rId54"/>
-    <sheet name="RFQ_List" sheetId="55" r:id="rId55"/>
-    <sheet name="Pur_Search_List" sheetId="56" r:id="rId56"/>
-    <sheet name="Sales_Agent_List" sheetId="57" r:id="rId57"/>
-    <sheet name="Receipts_List" sheetId="58" r:id="rId58"/>
-    <sheet name="temporaryReceipt_List" sheetId="59" r:id="rId59"/>
-    <sheet name="administrativeReceipts_List" sheetId="60" r:id="rId60"/>
-    <sheet name="sales_Payment_List" sheetId="61" r:id="rId61"/>
-    <sheet name="advance_Payments_List" sheetId="62" r:id="rId62"/>
-    <sheet name="customer_Debit_Note_List" sheetId="63" r:id="rId63"/>
-    <sheet name="waive_Off_List" sheetId="64" r:id="rId64"/>
-    <sheet name="agent_Debit_Note_List" sheetId="65" r:id="rId65"/>
-    <sheet name="customer_Credit_Note_List" sheetId="66" r:id="rId66"/>
-    <sheet name="Direct_Waive_Off_List" sheetId="67" r:id="rId67"/>
-    <sheet name="Budget_List" sheetId="68" r:id="rId68"/>
-    <sheet name="Request_List" sheetId="69" r:id="rId69"/>
-    <sheet name="Marketing_Agent_Debit_Note_List" sheetId="70" r:id="rId70"/>
-    <sheet name="booking_Documents_List" sheetId="71" r:id="rId71"/>
-    <sheet name="Send_Email_SMS_List" sheetId="72" r:id="rId72"/>
-    <sheet name="TDS_Reconciliation_List" sheetId="73" r:id="rId73"/>
-    <sheet name="Promotion_Agent_List" sheetId="74" r:id="rId74"/>
-    <sheet name="Unit_Share_Type_List_Test" sheetId="75" r:id="rId75"/>
-    <sheet name="Leads_List" sheetId="76" r:id="rId76"/>
-    <sheet name="Customers_List" sheetId="77" r:id="rId77"/>
-    <sheet name="EnggMilestone_List" sheetId="78" r:id="rId78"/>
-    <sheet name="Mbook_List" sheetId="79" r:id="rId79"/>
-    <sheet name="MBookAbst_List" sheetId="80" r:id="rId80"/>
-    <sheet name="Labour_List" sheetId="81" r:id="rId81"/>
-    <sheet name="Contracting_Leads_List" sheetId="82" r:id="rId82"/>
-    <sheet name="Contracting_Client_List" sheetId="83" r:id="rId83"/>
-    <sheet name="Contracting_Jobs_List" sheetId="84" r:id="rId84"/>
-    <sheet name="Contracting_Contacts_List" sheetId="85" r:id="rId85"/>
-    <sheet name="DPREquip_List" sheetId="86" r:id="rId86"/>
-    <sheet name="Criticalpoint_List" sheetId="87" r:id="rId87"/>
-    <sheet name="Workexecution_List" sheetId="88" r:id="rId88"/>
-    <sheet name="CubeResult_List" sheetId="89" r:id="rId89"/>
-    <sheet name="BankCredit_List" sheetId="90" r:id="rId90"/>
-    <sheet name="BondRequest_List" sheetId="91" r:id="rId91"/>
-    <sheet name="BondPayment_List" sheetId="92" r:id="rId92"/>
-    <sheet name="BillingReceipt_List" sheetId="93" r:id="rId93"/>
-    <sheet name="BillingCreditNote_List" sheetId="94" r:id="rId94"/>
-    <sheet name="LabourCountMapping_List" sheetId="95" r:id="rId95"/>
-    <sheet name="Billing_LabourAdvance_List" sheetId="96" r:id="rId96"/>
-    <sheet name="Billing_LabourPayment_List" sheetId="97" r:id="rId97"/>
+    <sheet name="ServProvider_Cert_List" sheetId="105" r:id="rId47"/>
+    <sheet name="ServProvider_Advance_List" sheetId="106" r:id="rId48"/>
+    <sheet name="EstChargeType_List" sheetId="47" r:id="rId49"/>
+    <sheet name="MaterialBuyer_List" sheetId="48" r:id="rId50"/>
+    <sheet name="MaterialRoleMapping_List" sheetId="49" r:id="rId51"/>
+    <sheet name="AssetType_List" sheetId="50" r:id="rId52"/>
+    <sheet name="AssetSubType_List" sheetId="51" r:id="rId53"/>
+    <sheet name="Asset_List" sheetId="52" r:id="rId54"/>
+    <sheet name="DocTemp_List" sheetId="53" r:id="rId55"/>
+    <sheet name="MaterialSaleReceipt_List" sheetId="54" r:id="rId56"/>
+    <sheet name="RFQ_List" sheetId="55" r:id="rId57"/>
+    <sheet name="Pur_Search_List" sheetId="56" r:id="rId58"/>
+    <sheet name="Sales_Agent_List" sheetId="57" r:id="rId59"/>
+    <sheet name="Receipts_List" sheetId="58" r:id="rId60"/>
+    <sheet name="temporaryReceipt_List" sheetId="59" r:id="rId61"/>
+    <sheet name="administrativeReceipts_List" sheetId="60" r:id="rId62"/>
+    <sheet name="sales_Payment_List" sheetId="61" r:id="rId63"/>
+    <sheet name="advance_Payments_List" sheetId="62" r:id="rId64"/>
+    <sheet name="customer_Debit_Note_List" sheetId="63" r:id="rId65"/>
+    <sheet name="waive_Off_List" sheetId="64" r:id="rId66"/>
+    <sheet name="agent_Debit_Note_List" sheetId="65" r:id="rId67"/>
+    <sheet name="customer_Credit_Note_List" sheetId="66" r:id="rId68"/>
+    <sheet name="Direct_Waive_Off_List" sheetId="67" r:id="rId69"/>
+    <sheet name="Budget_List" sheetId="68" r:id="rId70"/>
+    <sheet name="Request_List" sheetId="69" r:id="rId71"/>
+    <sheet name="Marketing_Agent_Debit_Note_List" sheetId="70" r:id="rId72"/>
+    <sheet name="booking_Documents_List" sheetId="71" r:id="rId73"/>
+    <sheet name="Send_Email_SMS_List" sheetId="72" r:id="rId74"/>
+    <sheet name="TDS_Reconciliation_List" sheetId="73" r:id="rId75"/>
+    <sheet name="Promotion_Agent_List" sheetId="74" r:id="rId76"/>
+    <sheet name="Unit_Share_Type_List" sheetId="75" r:id="rId77"/>
+    <sheet name="Leads_List" sheetId="76" r:id="rId78"/>
+    <sheet name="Customers_List" sheetId="77" r:id="rId79"/>
+    <sheet name="EnggMilestone_List" sheetId="78" r:id="rId80"/>
+    <sheet name="Mbook_List" sheetId="79" r:id="rId81"/>
+    <sheet name="MBookAbst_List" sheetId="80" r:id="rId82"/>
+    <sheet name="Labour_List" sheetId="81" r:id="rId83"/>
+    <sheet name="Contracting_Leads_List" sheetId="82" r:id="rId84"/>
+    <sheet name="Contracting_Client_List" sheetId="83" r:id="rId85"/>
+    <sheet name="Contracting_Jobs_List" sheetId="84" r:id="rId86"/>
+    <sheet name="Contracting_Contacts_List" sheetId="85" r:id="rId87"/>
+    <sheet name="DPREquip_List" sheetId="86" r:id="rId88"/>
+    <sheet name="Criticalpoint_List" sheetId="87" r:id="rId89"/>
+    <sheet name="Workexecution_List" sheetId="88" r:id="rId90"/>
+    <sheet name="CubeResult_List" sheetId="89" r:id="rId91"/>
+    <sheet name="BankCredit_List" sheetId="90" r:id="rId92"/>
+    <sheet name="BondRequest_List" sheetId="91" r:id="rId93"/>
+    <sheet name="BondPayment_List" sheetId="92" r:id="rId94"/>
+    <sheet name="BillingReceipt_List" sheetId="93" r:id="rId95"/>
+    <sheet name="BillingCreditNote_List" sheetId="94" r:id="rId96"/>
+    <sheet name="LabourCountMapping_List" sheetId="95" r:id="rId97"/>
+    <sheet name="Billing_LabourAdvance_List" sheetId="96" r:id="rId98"/>
+    <sheet name="Billing_LabourPayment_List" sheetId="97" r:id="rId99"/>
+    <sheet name="MarkettingDebitNoteReceipt_List" sheetId="98" r:id="rId100"/>
+    <sheet name="MarkettingCredit_Note_List" sheetId="99" r:id="rId101"/>
+    <sheet name="Marketting_Prameters_List" sheetId="100" r:id="rId102"/>
+    <sheet name="Market_Intelligence_List" sheetId="101" r:id="rId103"/>
+    <sheet name="AgentCreditNote_List" sheetId="102" r:id="rId104"/>
+    <sheet name="AgentApp_Licensing_List" sheetId="103" r:id="rId105"/>
+    <sheet name="Utilities_AreaFinalization_List" sheetId="104" r:id="rId106"/>
+    <sheet name="Cancellation_Letters_List" sheetId="107" r:id="rId107"/>
+    <sheet name="Demand_Letters_List" sheetId="108" r:id="rId108"/>
+    <sheet name="Reminder_Letters_List" sheetId="109" r:id="rId109"/>
+    <sheet name="Marketting_DN_Receipt_List" sheetId="110" r:id="rId110"/>
+    <sheet name="BilingCompDN_Receipt_List" sheetId="111" r:id="rId111"/>
+    <sheet name="Biling_SolicitorReceipt_List" sheetId="112" r:id="rId112"/>
+    <sheet name="Billing_Payments_List" sheetId="113" r:id="rId113"/>
+    <sheet name="Pur_Approvals_List" sheetId="114" r:id="rId114"/>
+    <sheet name="Engg_Approvals_List" sheetId="115" r:id="rId115"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:T20"/>
+  <oleSize ref="A1:S20"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -117,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="132">
   <si>
     <t>PASS</t>
   </si>
@@ -170,207 +188,356 @@
     <t>matstatus</t>
   </si>
   <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>materialwithstatus</t>
+  </si>
+  <si>
+    <t>assetwithstatus</t>
+  </si>
+  <si>
+    <t>returnable</t>
+  </si>
+  <si>
+    <t>nonreturnable</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>companywithstore</t>
+  </si>
+  <si>
+    <t>Unfullfilledissue</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>SubProject</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>WorkCategory</t>
+  </si>
+  <si>
+    <t>TypeOfIndent</t>
+  </si>
+  <si>
+    <t>Debitable</t>
+  </si>
+  <si>
+    <t>MaterialType</t>
+  </si>
+  <si>
+    <t>FulfilledPOTO</t>
+  </si>
+  <si>
+    <t>FulfilledIssue</t>
+  </si>
+  <si>
+    <t>fullFilled</t>
+  </si>
+  <si>
+    <t>ROPO</t>
+  </si>
+  <si>
+    <t>All_Radio</t>
+  </si>
+  <si>
+    <t>projectandsubproject</t>
+  </si>
+  <si>
+    <t>companywithproject</t>
+  </si>
+  <si>
+    <t>companyproject</t>
+  </si>
+  <si>
+    <t>mandatorywithstatus</t>
+  </si>
+  <si>
+    <t>withoutrfq</t>
+  </si>
+  <si>
+    <t>projectwithrfq</t>
+  </si>
+  <si>
+    <t>projectwithoutrfq</t>
+  </si>
+  <si>
+    <t>projectall</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>cerCompany</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>mandatoryfilters</t>
+  </si>
+  <si>
+    <t>materialtype</t>
+  </si>
+  <si>
+    <t>contarctor</t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t>ThirdPartyBuyer</t>
+  </si>
+  <si>
+    <t>noFilter</t>
+  </si>
+  <si>
+    <t>getProjectCount</t>
+  </si>
+  <si>
+    <t>getSubProjectCount</t>
+  </si>
+  <si>
+    <t>getStatusCount</t>
+  </si>
+  <si>
+    <t>promotion</t>
+  </si>
+  <si>
+    <t>emailCount</t>
+  </si>
+  <si>
+    <t>smsCount</t>
+  </si>
+  <si>
+    <t>projectCertificate</t>
+  </si>
+  <si>
+    <t>leadsCount</t>
+  </si>
+  <si>
+    <t>CustomersCount</t>
+  </si>
+  <si>
+    <t>statusfilter</t>
+  </si>
+  <si>
+    <t>allledas</t>
+  </si>
+  <si>
+    <t>activeleads</t>
+  </si>
+  <si>
+    <t>inactiveleads</t>
+  </si>
+  <si>
+    <t>allclients</t>
+  </si>
+  <si>
+    <t>activeclients</t>
+  </si>
+  <si>
+    <t>inactiveclients</t>
+  </si>
+  <si>
+    <t>nofilter</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>projectwithdate</t>
+  </si>
+  <si>
+    <t>projectfilter</t>
+  </si>
+  <si>
+    <t>subprojectfilter</t>
+  </si>
+  <si>
+    <t>nofilters</t>
+  </si>
+  <si>
+    <t>clientname</t>
+  </si>
+  <si>
+    <t>mandatoryfilter</t>
+  </si>
+  <si>
+    <t>datefilter</t>
+  </si>
+  <si>
     <t>fulfilled</t>
   </si>
   <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>materialwithstatus</t>
-  </si>
-  <si>
-    <t>assetwithstatus</t>
-  </si>
-  <si>
-    <t>returnable</t>
-  </si>
-  <si>
-    <t>nonreturnable</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>companywithstore</t>
-  </si>
-  <si>
-    <t>Unfullfilledissue</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>SubProject</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>WorkCategory</t>
-  </si>
-  <si>
-    <t>TypeOfIndent</t>
-  </si>
-  <si>
-    <t>Debitable</t>
-  </si>
-  <si>
-    <t>MaterialType</t>
-  </si>
-  <si>
-    <t>FulfilledPOTO</t>
-  </si>
-  <si>
-    <t>FulfilledIssue</t>
-  </si>
-  <si>
-    <t>fullFilled</t>
-  </si>
-  <si>
-    <t>ROPO</t>
-  </si>
-  <si>
-    <t>All_Radio</t>
-  </si>
-  <si>
-    <t>projectandsubproject</t>
-  </si>
-  <si>
-    <t>companywithproject</t>
-  </si>
-  <si>
-    <t>companyproject</t>
-  </si>
-  <si>
-    <t>mandatorywithstatus</t>
-  </si>
-  <si>
-    <t>withoutrfq</t>
-  </si>
-  <si>
-    <t>projectwithrfq</t>
-  </si>
-  <si>
-    <t>projectwithoutrfq</t>
-  </si>
-  <si>
-    <t>projectall</t>
-  </si>
-  <si>
-    <t>Go</t>
-  </si>
-  <si>
-    <t>cerCompany</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>mandatoryfilters</t>
-  </si>
-  <si>
-    <t>materialtype</t>
+    <t>unfulfilled</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>trasfer</t>
+  </si>
+  <si>
+    <t>companyandproject</t>
+  </si>
+  <si>
+    <t>WithRfq</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
-    <t>contarctor</t>
-  </si>
-  <si>
-    <t>supplier</t>
-  </si>
-  <si>
-    <t>ThirdPartyBuyer</t>
-  </si>
-  <si>
-    <t>noFilter</t>
-  </si>
-  <si>
-    <t>getProjectCount</t>
-  </si>
-  <si>
-    <t>getSubProjectCount</t>
-  </si>
-  <si>
-    <t>getStatusCount</t>
-  </si>
-  <si>
-    <t>promotion</t>
-  </si>
-  <si>
-    <t>emailCount</t>
-  </si>
-  <si>
-    <t>smsCount</t>
-  </si>
-  <si>
-    <t>projectCertificate</t>
-  </si>
-  <si>
-    <t>leadsCount</t>
-  </si>
-  <si>
-    <t>CustomersCount</t>
-  </si>
-  <si>
-    <t>statusfilter</t>
-  </si>
-  <si>
-    <t>allledas</t>
-  </si>
-  <si>
-    <t>activeleads</t>
-  </si>
-  <si>
-    <t>inactiveleads</t>
-  </si>
-  <si>
-    <t>allclients</t>
-  </si>
-  <si>
-    <t>activeclients</t>
-  </si>
-  <si>
-    <t>inactiveclients</t>
-  </si>
-  <si>
-    <t>nofilter</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>projectwithdate</t>
-  </si>
-  <si>
-    <t>projectfilter</t>
-  </si>
-  <si>
-    <t>subprojectfilter</t>
-  </si>
-  <si>
-    <t>nofilters</t>
+    <t>UnitShareType</t>
+  </si>
+  <si>
+    <t>projectCount</t>
+  </si>
+  <si>
+    <t>bankname</t>
+  </si>
+  <si>
+    <t>enableuser</t>
+  </si>
+  <si>
+    <t>disableuser</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>filestatus</t>
+  </si>
+  <si>
+    <t>DemandprojectSubProjectCount</t>
+  </si>
+  <si>
+    <t>ReminderprojectSubProjectCount</t>
+  </si>
+  <si>
+    <t>PayCompany</t>
+  </si>
+  <si>
+    <t>projectDD</t>
+  </si>
+  <si>
+    <t>searchsuppcert</t>
+  </si>
+  <si>
+    <t>searchsuppadvance</t>
+  </si>
+  <si>
+    <t>searchpurchaseorders</t>
+  </si>
+  <si>
+    <t>searchTransferorders</t>
+  </si>
+  <si>
+    <t>searchsuppliers</t>
+  </si>
+  <si>
+    <t>payingcomp</t>
+  </si>
+  <si>
+    <t>PurchaseOrder Approvals</t>
+  </si>
+  <si>
+    <t>ROPOMapping Approvals</t>
+  </si>
+  <si>
+    <t>Quotaion Approvals</t>
+  </si>
+  <si>
+    <t>TransferOrder Approvals</t>
+  </si>
+  <si>
+    <t>RateCmparision Approvals</t>
+  </si>
+  <si>
+    <t>MaterialSales Approvals</t>
+  </si>
+  <si>
+    <t>MaterialSalesReceipt Approvals</t>
+  </si>
+  <si>
+    <t>SuppCertificates Approvals</t>
+  </si>
+  <si>
+    <t>SuppAdvances Approvals</t>
+  </si>
+  <si>
+    <t>SuppDN Approvals</t>
+  </si>
+  <si>
+    <t>SuppDNReceipt Approvals</t>
+  </si>
+  <si>
+    <t>SuppDNWaiveOff Approvals</t>
+  </si>
+  <si>
+    <t>SuppMaster Approvals</t>
+  </si>
+  <si>
+    <t>ServCertificates Approvals</t>
+  </si>
+  <si>
+    <t>ServAdvances Approvals</t>
+  </si>
+  <si>
+    <t>ServDN Approvals</t>
+  </si>
+  <si>
+    <t>ServDNReceipt Approvals</t>
+  </si>
+  <si>
+    <t>ServiceProvider Approvals</t>
+  </si>
+  <si>
+    <t>POTermination</t>
+  </si>
+  <si>
+    <t>GRN Approvals</t>
+  </si>
+  <si>
+    <t>IssueInventory Approvals</t>
+  </si>
+  <si>
+    <t>ReturnInventory Approvals</t>
+  </si>
+  <si>
+    <t>GatePass Approvals</t>
+  </si>
+  <si>
+    <t>WorkOrder Approvals</t>
+  </si>
+  <si>
+    <t>Misc_Expenses Approvals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,15 +858,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -707,7 +874,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -715,7 +882,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -723,7 +890,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -731,7 +898,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -739,7 +906,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -747,7 +914,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -755,7 +922,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -763,7 +930,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -771,7 +938,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -779,7 +946,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -792,10 +959,149 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14851B64-87F1-4416-88E7-1819A0CCEDF7}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F78997-D74D-4526-8D9E-B9647C69C930}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F5B81F-F176-4F1E-BBED-806805D3ED76}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133FAC10-DD85-4D44-844E-201E4344B9F9}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C41EDF-671F-4EC6-9D1C-BB1B28ECE64F}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A938B71D-8BC3-46E1-846D-18A2327E53A0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,6 +1109,165 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E913910-C333-49DF-A879-6BBEBE7E31E4}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E744DCD-DC91-4436-8A45-FBB68F21F712}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173F8C4E-0BDE-42AF-8A55-7A26578D6D62}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9263E16C-71C3-45C6-ACEA-EDB07AB3B9C4}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E383E3F-E25B-41B4-ABB9-9DD4AF16B395}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>98</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -836,6 +1301,375 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E0707-5579-4C1C-B9DA-EF12CEE055CB}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554F6F68-7E7A-4DFD-949E-FA38ED29CF3C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396A4716-1F41-4B00-A59F-74AAC1B28804}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94182D7B-F837-484B-AB9A-C60026782CBA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C79434-08DC-46ED-9470-BA31EAB19BAC}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F0F550-C75C-4317-8A2B-6D52A7240C84}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -856,7 +1690,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -893,7 +1727,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +1753,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -953,7 +1787,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1058,7 +1892,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1071,7 +1905,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1092,7 +1926,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1196,13 +2030,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1233,7 +2067,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1254,12 +2088,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1272,14 +2106,23 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599CFA6A-F8DB-4067-B086-7F464BAF708E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1289,17 +2132,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1320,12 +2163,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1346,12 +2189,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1364,14 +2207,31 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED52212-2E5D-4E51-AEC7-E2FB626C5CD0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1386,12 +2246,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1412,7 +2272,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1456,7 +2316,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1477,20 +2337,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1503,29 +2363,29 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB4E2FA-AD2E-4363-9BB5-4C772AF331BB}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1533,17 +2393,33 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1557,22 +2433,22 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1595,15 +2471,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1616,19 +2492,27 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5460D2A6-C632-4FE5-A6B2-DB1AAE1FA5A6}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1649,7 +2533,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1672,7 +2556,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1695,15 +2579,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>49</v>
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1716,14 +2600,23 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB847CB4-819F-4A05-B192-8322AB361836}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1740,7 +2633,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1753,14 +2646,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B4F11D-75F3-4E2C-85AD-05237C2AEAF3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1777,15 +2679,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>51</v>
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1808,7 +2710,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1824,7 +2726,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1837,7 +2739,7 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DE5042-5B3B-4EC0-BDC8-D7724292A268}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -1847,10 +2749,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1863,13 +2781,27 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1877,14 +2809,31 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10023582-830F-4B52-A29A-76BE970BBCAB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1909,7 +2858,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1930,12 +2879,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1947,8 +2896,70 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCECEFD9-9C3C-4789-A985-747A55AAD486}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFF7FFD-3B3C-40A2-B8A8-D41F571EC0D1}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259F2251-FE04-437A-9C2D-C7FB70209390}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
@@ -1956,62 +2967,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E36499-1DCD-493C-913F-F8DB2CDE2C3A}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4A4905-6ED1-45AB-BE92-DF351DFAB822}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2031,15 +2992,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2047,7 +3008,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -2059,6 +3020,64 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E36499-1DCD-493C-913F-F8DB2CDE2C3A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4A4905-6ED1-45AB-BE92-DF351DFAB822}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76239C0-83F9-4F98-A5A2-000CEC0EC247}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2070,18 +3089,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F05813-D5F6-47E1-A631-472B58EF98F7}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2093,18 +3112,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539EDF81-C243-419D-8C0A-34CBC63BC6E1}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2116,18 +3135,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9BB6BC-4364-4C02-B0F1-E5CB38E5340B}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2139,18 +3158,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606A76A7-4257-4866-8490-1F86C1B1A72F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2160,21 +3179,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2182,7 +3201,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2190,7 +3209,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2201,42 +3220,96 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E555706-52E7-4BD1-ADDB-E9F7EF4E5593}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CA28BB-75E5-4E0A-9502-DC9301367605}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68971F62-700A-4D81-94AA-32DF76CB16AA}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2248,69 +3321,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C0BA2B-EDD9-425F-9971-EF84AE71CB1A}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC1FA03-0639-40DE-9DCA-65FFD6815EE4}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2331,7 +3342,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2364,6 +3375,68 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C0BA2B-EDD9-425F-9971-EF84AE71CB1A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC1FA03-0639-40DE-9DCA-65FFD6815EE4}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1178B4B-6E0D-4C02-A073-CADB6281BFF1}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2375,18 +3448,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F2B3F6-B8F7-405E-9D1A-F648639B2798}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2396,12 +3469,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2420,7 +3493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5677E1D8-B214-4ACD-941F-A7A1474F15BC}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2432,7 +3505,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2451,7 +3524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BED4CD1-9B33-4035-9E21-55D8BBEF4E70}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2463,7 +3536,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2482,7 +3555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10384AA-7AEC-4AB8-8887-80B72493BAB9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2494,7 +3567,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2513,35 +3586,69 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C12A3-F026-4627-82FC-3B861DF9D75F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371232D3-B63A-4A71-A8E8-E6C727097960}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CBB871-C768-48D6-BE62-464B565088B0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2553,7 +3660,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2562,68 +3669,6 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D951D1F0-BB21-4434-A052-D46B35E0AE22}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44634DB0-EE1A-4DC6-BE14-DF22EC52C819}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -2636,20 +3681,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168FA4DA-19E6-4AC8-BA11-478D88EC9280}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2658,20 +3719,99 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D951D1F0-BB21-4434-A052-D46B35E0AE22}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44634DB0-EE1A-4DC6-BE14-DF22EC52C819}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C64CEE-E1B5-4562-A04E-5D7A92563978}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F22D1C9-8D0F-4BBB-BA1D-67569ABFFC61}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2681,8 +3821,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2699,7 +3839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDEA37C-9C8F-42AA-A471-F75F3297495B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2711,26 +3851,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE9E195-CD8E-4AE8-9140-63F95485B654}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2740,23 +3880,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D1EC0E-AA80-4AC9-BDB4-D742832C00A8}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2768,32 +3908,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE63AC45-0485-4CC3-9646-67A86F46381C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5C8AF6-4CEB-41CD-B69B-9549EC3E711D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2803,31 +3952,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A341355-76BC-4AD2-A7DC-CE5D8B5D3CDA}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2839,67 +3988,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E849E5EE-6526-4F8F-8C26-DE53887A1953}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D70ABE-8CDC-4E69-BBE9-6291383CB9AD}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2917,7 +4017,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2930,7 +4030,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2938,7 +4038,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -2946,7 +4046,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2958,6 +4058,64 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E849E5EE-6526-4F8F-8C26-DE53887A1953}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D70ABE-8CDC-4E69-BBE9-6291383CB9AD}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F848CC43-5920-4991-BE5A-983005A6198A}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2967,23 +4125,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2901DC57-2C56-420D-B7CD-5321963CEC33}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2995,18 +4153,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D61DF4-1831-4C86-87C8-855A849E7B75}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3016,20 +4174,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3037,7 +4195,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -3048,7 +4206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E31BD54-8512-4DC7-AFF5-651ECB464336}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3060,15 +4218,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3076,7 +4234,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -3087,7 +4245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C69E319-E639-40A9-924A-E8A87176E9E4}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -3097,20 +4255,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3118,7 +4276,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -3126,7 +4284,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -3134,7 +4292,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -3145,7 +4303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D29305-0A8E-4E09-85F2-F6048DE62EDA}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -3157,18 +4315,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B0AE68-1CD3-48E7-9A4B-AA182D659A1C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3180,7 +4338,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3189,6 +4347,358 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655EB87-55B9-4BB9-AB57-75D2B2879C0C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293A23D7-CE5D-4B2E-81F3-CA84109C9531}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DDB2B6-A8DD-4DA9-AC5D-C0AF4AA7328B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D692574-BF8C-4E6B-B497-14ADD9F9B402}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA07A65C-89E4-4346-8588-F1D6B0F00819}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C0F5BC-87BF-4666-B8FF-EEFCBCD1AAEC}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324B6A5A-D6D5-4B52-BDB2-3E43B6D2B3B6}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D23995-EA1C-401C-B0FB-E3B70F1912A6}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20C22ED-8BB5-407C-B0E0-DB2A9C96B61C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E187C5E4-85CA-4FF8-8A3F-2D166ED02345}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AFC7C8-43CA-4665-9B2A-23E9E1177834}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3207,27 +4717,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655EB87-55B9-4BB9-AB57-75D2B2879C0C}">
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2A10AC-1101-458E-B46C-23088A40FF62}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3244,293 +4754,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DDB2B6-A8DD-4DA9-AC5D-C0AF4AA7328B}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D692574-BF8C-4E6B-B497-14ADD9F9B402}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293A23D7-CE5D-4B2E-81F3-CA84109C9531}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA07A65C-89E4-4346-8588-F1D6B0F00819}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C0F5BC-87BF-4666-B8FF-EEFCBCD1AAEC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324B6A5A-D6D5-4B52-BDB2-3E43B6D2B3B6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D23995-EA1C-401C-B0FB-E3B70F1912A6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20C22ED-8BB5-407C-B0E0-DB2A9C96B61C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E187C5E4-85CA-4FF8-8A3F-2D166ED02345}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AFC7C8-43CA-4665-9B2A-23E9E1177834}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2A10AC-1101-458E-B46C-23088A40FF62}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>